--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 900-POS-POS3.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 900-POS-POS3.xlsx
@@ -19,7 +19,253 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="143">
+  <si>
+    <t>Signal_Value_4</t>
+  </si>
+  <si>
+    <t>Signal_Value_5</t>
+  </si>
+  <si>
+    <t>Signal_Value_6</t>
+  </si>
+  <si>
+    <t>Signal_Value_7</t>
+  </si>
+  <si>
+    <t>Signal_Value_8</t>
+  </si>
+  <si>
+    <t>Signal_Value_9</t>
+  </si>
+  <si>
+    <t>Signal_Value_10</t>
+  </si>
+  <si>
+    <t>Signal_Value_11</t>
+  </si>
+  <si>
+    <t>Signal_Value_12</t>
+  </si>
+  <si>
+    <t>Signal_Value_13</t>
+  </si>
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
+  <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
+    <t>Signal_Value_45</t>
+  </si>
+  <si>
+    <t>Signal_Value_46</t>
+  </si>
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
+  <si>
+    <t>Signal_Value_48</t>
+  </si>
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
+  <si>
+    <t>Signal_Value_50</t>
+  </si>
+  <si>
+    <t>Signal_Value_51</t>
+  </si>
+  <si>
+    <t>Signal_Value_52</t>
+  </si>
+  <si>
+    <t>Signal_Value_53</t>
+  </si>
+  <si>
+    <t>Signal_Value_54</t>
+  </si>
+  <si>
+    <t>Signal_Value_55</t>
+  </si>
+  <si>
+    <t>Signal_Value_56</t>
+  </si>
+  <si>
+    <t>Signal_Value_57</t>
+  </si>
+  <si>
+    <t>Signal_Value_58</t>
+  </si>
+  <si>
+    <t>Signal_Value_59</t>
+  </si>
+  <si>
+    <t>Signal_Value_60</t>
+  </si>
+  <si>
+    <t>Signal_Value_61</t>
+  </si>
+  <si>
+    <t>Signal_Value_62</t>
+  </si>
+  <si>
+    <t>Signal_Value_63</t>
+  </si>
+  <si>
+    <t>Signal_Value_64</t>
+  </si>
+  <si>
+    <t>Signal_Value_65</t>
+  </si>
+  <si>
+    <t>Signal_Value_66</t>
+  </si>
+  <si>
+    <t>Signal_Value_67</t>
+  </si>
+  <si>
+    <t>Signal_Value_68</t>
+  </si>
+  <si>
+    <t>Signal_Value_69</t>
+  </si>
+  <si>
+    <t>Signal_Value_70</t>
+  </si>
+  <si>
+    <t>Signal_Value_71</t>
+  </si>
+  <si>
+    <t>Signal_Value_72</t>
+  </si>
+  <si>
+    <t>Signal_Value_73</t>
+  </si>
+  <si>
+    <t>Signal_Value_74</t>
+  </si>
+  <si>
+    <t>Signal_Value_75</t>
+  </si>
+  <si>
+    <t>Signal_Value_76</t>
+  </si>
+  <si>
+    <t>Signal_Value_77</t>
+  </si>
+  <si>
+    <t>Signal_Value_78</t>
+  </si>
+  <si>
+    <t>Signal_Value_79</t>
+  </si>
+  <si>
+    <t>Signal_Value_80</t>
+  </si>
+  <si>
+    <t>Signal_Value_81</t>
+  </si>
+  <si>
+    <t>Signal_Value_82</t>
+  </si>
+  <si>
+    <t>Signal_Value_83</t>
+  </si>
+  <si>
+    <t>Signal_Value_84</t>
+  </si>
+  <si>
+    <t>Signal_Value_85</t>
+  </si>
   <si>
     <t>Signal_Value_86</t>
   </si>
@@ -126,9 +372,6 @@
     <t>Signal_Value_120</t>
   </si>
   <si>
-    <t>Signal_Value_121</t>
-  </si>
-  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -201,10 +444,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -565,15 +805,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:DN6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:118">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -683,10 +923,253 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:118">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -695,111 +1178,354 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1435846286677733</v>
       </c>
       <c r="E2">
-        <v>0.00453184369569695</v>
+        <v>0.01092649727080484</v>
       </c>
       <c r="F2">
-        <v>0.003566457133729225</v>
+        <v>0.1090060557441374</v>
       </c>
       <c r="G2">
-        <v>0.01797112858457603</v>
+        <v>0.001551815028549747</v>
       </c>
       <c r="H2">
-        <v>0.07023251078437508</v>
+        <v>0.0008797935801799856</v>
       </c>
       <c r="I2">
-        <v>0.01307486730484284</v>
+        <v>0.0243077240293101</v>
       </c>
       <c r="J2">
-        <v>0.02652558403135744</v>
+        <v>0.0002805777824812772</v>
       </c>
       <c r="K2">
-        <v>0.009263038290771144</v>
+        <v>0.07659112283355143</v>
       </c>
       <c r="L2">
-        <v>0.006902548677603939</v>
+        <v>0.09816691527220012</v>
       </c>
       <c r="M2">
-        <v>0.1758199855280357</v>
+        <v>0.01009200229299287</v>
       </c>
       <c r="N2">
-        <v>0.0136658176678509</v>
+        <v>0.02594913213399106</v>
       </c>
       <c r="O2">
-        <v>0.2170859448150644</v>
+        <v>0.002304082247209606</v>
       </c>
       <c r="P2">
-        <v>0.07464440280864212</v>
+        <v>0.02837297389258384</v>
       </c>
       <c r="Q2">
-        <v>0.001874022201457681</v>
+        <v>0.02577730045198968</v>
       </c>
       <c r="R2">
-        <v>0.0454977024331437</v>
+        <v>0.06925991739871408</v>
       </c>
       <c r="S2">
-        <v>0.07588709636104889</v>
+        <v>0.00787829785935697</v>
       </c>
       <c r="T2">
-        <v>0.1036513531675939</v>
+        <v>0.02246047069534508</v>
       </c>
       <c r="U2">
-        <v>0.01037822244921215</v>
+        <v>0.03440893007116885</v>
       </c>
       <c r="V2">
-        <v>0.01753273438248026</v>
+        <v>0.007012605028108966</v>
       </c>
       <c r="W2">
-        <v>0.01608367589902829</v>
+        <v>0.01530855846673102</v>
       </c>
       <c r="X2">
-        <v>0.00244211118557443</v>
+        <v>0.05845110871043706</v>
       </c>
       <c r="Y2">
-        <v>0.01759289187714206</v>
+        <v>0.1112964686010388</v>
       </c>
       <c r="Z2">
-        <v>0.0324967607667301</v>
+        <v>3.090303554775723E-05</v>
       </c>
       <c r="AA2">
-        <v>0.01323771737068211</v>
+        <v>0.0098049966549657</v>
       </c>
       <c r="AB2">
-        <v>0.003501735354690666</v>
+        <v>0.001250383418850744</v>
       </c>
       <c r="AC2">
-        <v>3.847608753752028E-05</v>
+        <v>0.06525404166885154</v>
       </c>
       <c r="AD2">
-        <v>0.001263074351281523</v>
+        <v>0.02500462265503579</v>
       </c>
       <c r="AE2">
-        <v>0.001171930426922491</v>
+        <v>0.001315567526551711</v>
       </c>
       <c r="AF2">
-        <v>1.825023305860413E-05</v>
+        <v>0.01067431838304584</v>
       </c>
       <c r="AG2">
-        <v>0.003294416966776254</v>
+        <v>0.0001629512114090152</v>
       </c>
       <c r="AH2">
-        <v>0.01281632097144243</v>
+        <v>0.0006167977173179453</v>
       </c>
       <c r="AI2">
-        <v>0.006462400500660628</v>
+        <v>0.002018439669767982</v>
       </c>
       <c r="AJ2">
-        <v>0.001474977690990378</v>
+        <v>0</v>
       </c>
       <c r="AK2">
         <v>0</v>
       </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:118">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -811,108 +1537,351 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.003120914134887533</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.01814340814103776</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.06381273767120872</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01170517915668988</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0798993814337032</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02401404243173521</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.01490520594798596</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.02237011293454614</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.08582034739430687</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0380041242111727</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1051093778296986</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.1638864596266208</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.01733210530873832</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.01360702788441413</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.04238931807743566</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.08062662787348246</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0712806909195675</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>2.316019892035113E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.02415049395161045</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.01052785868804694</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.009776731397625476</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.02789781469897799</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0245507370659321</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.00778166964897801</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.002363298609015012</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.002414422278209814</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.001457246674323289</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.002535548381618444</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.01194079462818948</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.01250802238902996</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.006045140412291578</v>
+        <v>0</v>
       </c>
       <c r="AK3">
         <v>0</v>
       </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0.05259463479242556</v>
+      </c>
+      <c r="CJ3">
+        <v>0.0234097415602334</v>
+      </c>
+      <c r="CK3">
+        <v>0.1636854968148085</v>
+      </c>
+      <c r="CL3">
+        <v>0.005403841622169901</v>
+      </c>
+      <c r="CM3">
+        <v>0.01641518140511918</v>
+      </c>
+      <c r="CN3">
+        <v>0.01279429376919473</v>
+      </c>
+      <c r="CO3">
+        <v>0.02347798495522296</v>
+      </c>
+      <c r="CP3">
+        <v>0.2110462513411823</v>
+      </c>
+      <c r="CQ3">
+        <v>0.00487952575389147</v>
+      </c>
+      <c r="CR3">
+        <v>0.01624832195369789</v>
+      </c>
+      <c r="CS3">
+        <v>0.01150756318931256</v>
+      </c>
+      <c r="CT3">
+        <v>0.03772775774283885</v>
+      </c>
+      <c r="CU3">
+        <v>0.003486346665267384</v>
+      </c>
+      <c r="CV3">
+        <v>0.06343955938969799</v>
+      </c>
+      <c r="CW3">
+        <v>0.03888324894016647</v>
+      </c>
+      <c r="CX3">
+        <v>0.01303713086703773</v>
+      </c>
+      <c r="CY3">
+        <v>0.0190060870185798</v>
+      </c>
+      <c r="CZ3">
+        <v>0.0009578788606088028</v>
+      </c>
+      <c r="DA3">
+        <v>0.0005869986571949412</v>
+      </c>
+      <c r="DB3">
+        <v>0.001213434041179679</v>
+      </c>
+      <c r="DC3">
+        <v>0.02142032353442788</v>
+      </c>
+      <c r="DD3">
+        <v>0.1647258543194089</v>
+      </c>
+      <c r="DE3">
+        <v>0.01632562220435036</v>
+      </c>
+      <c r="DF3">
+        <v>0.0116896755988861</v>
+      </c>
+      <c r="DG3">
+        <v>0.02237072903474734</v>
+      </c>
+      <c r="DH3">
+        <v>0.02782627011269261</v>
+      </c>
+      <c r="DI3">
+        <v>0.007322794427044071</v>
+      </c>
+      <c r="DJ3">
+        <v>0.0001119114484480371</v>
+      </c>
+      <c r="DK3">
+        <v>0.006765683443258707</v>
+      </c>
+      <c r="DL3">
+        <v>0</v>
+      </c>
+      <c r="DM3">
+        <v>4.713642145727051E-06</v>
+      </c>
+      <c r="DN3">
+        <v>0.001635142894760055</v>
+      </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:118">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -921,100 +1890,100 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.002691346204235967</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.004210716212642706</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.008685888401215503</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.02525421119027075</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2.281653710427123E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01568441830350935</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01514930209703809</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.006832183882251423</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1803932115593292</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.005765203460437868</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2137470010509125</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1101776053199085</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0310639704666282</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.05386527210219336</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1340494195380439</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.02692801925821991</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.01550610123094586</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0236477387793502</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.006135848266048374</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.02119053751982461</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.03782971365123439</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.01520309622205985</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.005567892443612331</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.001081359999234328</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0007686004178095791</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.002386033064566855</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0004242736886092701</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.004670639404875709</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.01724151237404073</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0102336170236911</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.003592450330155507</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1022,10 +1991,253 @@
       <c r="AK4">
         <v>0</v>
       </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0.09871022074634736</v>
+      </c>
+      <c r="AT4">
+        <v>0.0005516569253952575</v>
+      </c>
+      <c r="AU4">
+        <v>0.05748054660261411</v>
+      </c>
+      <c r="AV4">
+        <v>0.03921807720053868</v>
+      </c>
+      <c r="AW4">
+        <v>0.0198609168790697</v>
+      </c>
+      <c r="AX4">
+        <v>0.003986551741653935</v>
+      </c>
+      <c r="AY4">
+        <v>0.1048670708811568</v>
+      </c>
+      <c r="AZ4">
+        <v>0.01899678752302174</v>
+      </c>
+      <c r="BA4">
+        <v>0.001938019765148018</v>
+      </c>
+      <c r="BB4">
+        <v>0.04112339024290909</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0.09145887055467304</v>
+      </c>
+      <c r="BE4">
+        <v>0.00339634008045472</v>
+      </c>
+      <c r="BF4">
+        <v>0.01597072674148315</v>
+      </c>
+      <c r="BG4">
+        <v>0.0203599767182997</v>
+      </c>
+      <c r="BH4">
+        <v>0.147923407109664</v>
+      </c>
+      <c r="BI4">
+        <v>0.08838803728571061</v>
+      </c>
+      <c r="BJ4">
+        <v>0.01763085570004533</v>
+      </c>
+      <c r="BK4">
+        <v>0.005515430406207378</v>
+      </c>
+      <c r="BL4">
+        <v>0.0009414332252259695</v>
+      </c>
+      <c r="BM4">
+        <v>0.01223936764728657</v>
+      </c>
+      <c r="BN4">
+        <v>0.1051787857806611</v>
+      </c>
+      <c r="BO4">
+        <v>0.003821994822402863</v>
+      </c>
+      <c r="BP4">
+        <v>0.00917033309055962</v>
+      </c>
+      <c r="BQ4">
+        <v>0.009024094146801656</v>
+      </c>
+      <c r="BR4">
+        <v>0.05952321753991175</v>
+      </c>
+      <c r="BS4">
+        <v>0.01046908835866217</v>
+      </c>
+      <c r="BT4">
+        <v>0.001822472407192432</v>
+      </c>
+      <c r="BU4">
+        <v>0.00265932925312973</v>
+      </c>
+      <c r="BV4">
+        <v>0.005685216364620314</v>
+      </c>
+      <c r="BW4">
+        <v>0.001668536356406304</v>
+      </c>
+      <c r="BX4">
+        <v>0.0004192479027468</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DN4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:118">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1040,105 +2252,348 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.003233753690581312</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.03816033960002801</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.02921556507999481</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.002057618820933313</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01137345309297751</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.04416813261202078</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.003653452955221295</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1912995228406048</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.01415188050988096</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.160467943419985</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.1857122558690475</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.007611369701320696</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.02193453432671321</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.04989445838591614</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.104801920900168</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.02795804693760375</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.004854734356979208</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.015050568606436</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.003061218612616943</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.007427719149136211</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.02596901922866027</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.01631831964516414</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.005920336602294753</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.001115836581910204</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>5.092857489117713E-05</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0002116342889550866</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.724913291276796E-05</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.001808458427685594</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0102780671620712</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.00866182635515866</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.002518710264369083</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.001041124267761834</v>
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0.06673260632391126</v>
+      </c>
+      <c r="CJ5">
+        <v>0.0003868853867016524</v>
+      </c>
+      <c r="CK5">
+        <v>0.1312629040706932</v>
+      </c>
+      <c r="CL5">
+        <v>0.05023862873744603</v>
+      </c>
+      <c r="CM5">
+        <v>0.03486534216010473</v>
+      </c>
+      <c r="CN5">
+        <v>0.006747789282034224</v>
+      </c>
+      <c r="CO5">
+        <v>0.009107522201477748</v>
+      </c>
+      <c r="CP5">
+        <v>0.06322707504081447</v>
+      </c>
+      <c r="CQ5">
+        <v>0.04970784183037351</v>
+      </c>
+      <c r="CR5">
+        <v>0.03607027849929836</v>
+      </c>
+      <c r="CS5">
+        <v>0.02472760596475351</v>
+      </c>
+      <c r="CT5">
+        <v>0.0008505788188429734</v>
+      </c>
+      <c r="CU5">
+        <v>0.008471350296106144</v>
+      </c>
+      <c r="CV5">
+        <v>0.01131038196207882</v>
+      </c>
+      <c r="CW5">
+        <v>0.06952331197702255</v>
+      </c>
+      <c r="CX5">
+        <v>0.07795131463728541</v>
+      </c>
+      <c r="CY5">
+        <v>0.001999055773517995</v>
+      </c>
+      <c r="CZ5">
+        <v>0.02094153243231402</v>
+      </c>
+      <c r="DA5">
+        <v>0.01105926638868381</v>
+      </c>
+      <c r="DB5">
+        <v>0.01212950382903718</v>
+      </c>
+      <c r="DC5">
+        <v>0.0006124526607325653</v>
+      </c>
+      <c r="DD5">
+        <v>0.1731497144028895</v>
+      </c>
+      <c r="DE5">
+        <v>0.04827223191952428</v>
+      </c>
+      <c r="DF5">
+        <v>0.02451086821118835</v>
+      </c>
+      <c r="DG5">
+        <v>0.02397784564258923</v>
+      </c>
+      <c r="DH5">
+        <v>0.009350050266226565</v>
+      </c>
+      <c r="DI5">
+        <v>0.0008193266522933563</v>
+      </c>
+      <c r="DJ5">
+        <v>0.02053933984229448</v>
+      </c>
+      <c r="DK5">
+        <v>0.004500312021577223</v>
+      </c>
+      <c r="DL5">
+        <v>0.0004362171320392452</v>
+      </c>
+      <c r="DM5">
+        <v>0.005486023711026077</v>
+      </c>
+      <c r="DN5">
+        <v>0.001034841925121707</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:118">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1147,105 +2602,348 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00516281688100354</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01026804013080373</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.002350311919240532</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0192287530487801</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.002171891405958091</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0001904037157710467</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02741364361480845</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.05831121351563846</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1976928555565832</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.004372597969792337</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.22196574295513</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1229599198009387</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>7.750216794282953E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.03524499718665729</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.07224937121509196</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.1063682881313258</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.008143187275132083</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.01157766421854733</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.01094975301183303</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.003083688236478964</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0141189965520655</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.02621144611207626</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.01055205893713436</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.003597688706821764</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>1.553557393575974E-05</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0004871757976526815</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>4.324820980138732E-05</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.004818984811164954</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.01197249917830361</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.006990232669084648</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.001409491494501807</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
       </c>
       <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0.04096090315482356</v>
+      </c>
+      <c r="AT6">
+        <v>0.02577319976622867</v>
+      </c>
+      <c r="AU6">
+        <v>0.05695076495517679</v>
+      </c>
+      <c r="AV6">
+        <v>0.1494374502816951</v>
+      </c>
+      <c r="AW6">
+        <v>1.285697279471166E-05</v>
+      </c>
+      <c r="AX6">
+        <v>1.500508281307114E-05</v>
+      </c>
+      <c r="AY6">
+        <v>0.0003471780091231435</v>
+      </c>
+      <c r="AZ6">
+        <v>0.02950066836313758</v>
+      </c>
+      <c r="BA6">
+        <v>0.1462993956457621</v>
+      </c>
+      <c r="BB6">
+        <v>0.001461479466267949</v>
+      </c>
+      <c r="BC6">
+        <v>0.004601499612569383</v>
+      </c>
+      <c r="BD6">
+        <v>0.001493863304779141</v>
+      </c>
+      <c r="BE6">
+        <v>0.003896677459372425</v>
+      </c>
+      <c r="BF6">
+        <v>0.0003993015803657442</v>
+      </c>
+      <c r="BG6">
+        <v>0.01814707932414123</v>
+      </c>
+      <c r="BH6">
+        <v>0.08068425332927054</v>
+      </c>
+      <c r="BI6">
+        <v>0.09907777437894123</v>
+      </c>
+      <c r="BJ6">
+        <v>0.0006761883918833086</v>
+      </c>
+      <c r="BK6">
+        <v>0.02114673213644356</v>
+      </c>
+      <c r="BL6">
+        <v>0.004679211259014225</v>
+      </c>
+      <c r="BM6">
+        <v>0.01287842340631693</v>
+      </c>
+      <c r="BN6">
+        <v>0.06298719256876252</v>
+      </c>
+      <c r="BO6">
+        <v>0.174992809825423</v>
+      </c>
+      <c r="BP6">
+        <v>0.005662155969243726</v>
+      </c>
+      <c r="BQ6">
+        <v>0.003227897235998958</v>
+      </c>
+      <c r="BR6">
+        <v>0.006897589095121358</v>
+      </c>
+      <c r="BS6">
+        <v>0.01717267285073954</v>
+      </c>
+      <c r="BT6">
+        <v>0.01111661105905526</v>
+      </c>
+      <c r="BU6">
+        <v>0.007031275188552522</v>
+      </c>
+      <c r="BV6">
+        <v>0.006680103504499665</v>
+      </c>
+      <c r="BW6">
+        <v>0.005674077574337665</v>
+      </c>
+      <c r="BX6">
+        <v>0.0001177092473450975</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DF6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DH6">
+        <v>0</v>
+      </c>
+      <c r="DI6">
+        <v>0</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DL6">
+        <v>0</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DN6">
         <v>0</v>
       </c>
     </row>
@@ -1256,15 +2954,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:DN6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:118">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1374,10 +3072,253 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:118">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1386,558 +3327,1773 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1435846286677733</v>
       </c>
       <c r="E2">
-        <v>0.00453184369569695</v>
+        <v>0.1545111259385781</v>
       </c>
       <c r="F2">
-        <v>0.008098300829426175</v>
+        <v>0.2635171816827155</v>
       </c>
       <c r="G2">
-        <v>0.02606942941400221</v>
+        <v>0.2650689967112653</v>
       </c>
       <c r="H2">
-        <v>0.09630194019837729</v>
+        <v>0.2659487902914452</v>
       </c>
       <c r="I2">
-        <v>0.1093768075032201</v>
+        <v>0.2902565143207553</v>
       </c>
       <c r="J2">
-        <v>0.1359023915345776</v>
+        <v>0.2905370921032366</v>
       </c>
       <c r="K2">
-        <v>0.1451654298253487</v>
+        <v>0.367128214936788</v>
       </c>
       <c r="L2">
-        <v>0.1520679785029526</v>
+        <v>0.4652951302089882</v>
       </c>
       <c r="M2">
-        <v>0.3278879640309883</v>
+        <v>0.4753871325019811</v>
       </c>
       <c r="N2">
-        <v>0.3415537816988392</v>
+        <v>0.5013362646359721</v>
       </c>
       <c r="O2">
-        <v>0.5586397265139036</v>
+        <v>0.5036403468831817</v>
       </c>
       <c r="P2">
-        <v>0.6332841293225457</v>
+        <v>0.5320133207757656</v>
       </c>
       <c r="Q2">
-        <v>0.6351581515240035</v>
+        <v>0.5577906212277552</v>
       </c>
       <c r="R2">
-        <v>0.6806558539571471</v>
+        <v>0.6270505386264693</v>
       </c>
       <c r="S2">
-        <v>0.756542950318196</v>
+        <v>0.6349288364858263</v>
       </c>
       <c r="T2">
-        <v>0.8601943034857898</v>
+        <v>0.6573893071811714</v>
       </c>
       <c r="U2">
-        <v>0.870572525935002</v>
+        <v>0.6917982372523402</v>
       </c>
       <c r="V2">
-        <v>0.8881052603174823</v>
+        <v>0.6988108422804492</v>
       </c>
       <c r="W2">
-        <v>0.9041889362165105</v>
+        <v>0.7141194007471803</v>
       </c>
       <c r="X2">
-        <v>0.906631047402085</v>
+        <v>0.7725705094576173</v>
       </c>
       <c r="Y2">
-        <v>0.9242239392792271</v>
+        <v>0.8838669780586561</v>
       </c>
       <c r="Z2">
-        <v>0.9567207000459572</v>
+        <v>0.8838978810942039</v>
       </c>
       <c r="AA2">
-        <v>0.9699584174166394</v>
+        <v>0.8937028777491696</v>
       </c>
       <c r="AB2">
-        <v>0.97346015277133</v>
+        <v>0.8949532611680203</v>
       </c>
       <c r="AC2">
-        <v>0.9734986288588675</v>
+        <v>0.9602073028368718</v>
       </c>
       <c r="AD2">
-        <v>0.974761703210149</v>
+        <v>0.9852119254919076</v>
       </c>
       <c r="AE2">
-        <v>0.9759336336370715</v>
+        <v>0.9865274930184593</v>
       </c>
       <c r="AF2">
-        <v>0.9759518838701301</v>
+        <v>0.9972018114015052</v>
       </c>
       <c r="AG2">
-        <v>0.9792463008369063</v>
+        <v>0.9973647626129142</v>
       </c>
       <c r="AH2">
-        <v>0.9920626218083488</v>
+        <v>0.9979815603302321</v>
       </c>
       <c r="AI2">
-        <v>0.9985250223090094</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <v>1</v>
+      </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+      <c r="BC2">
+        <v>1</v>
+      </c>
+      <c r="BD2">
+        <v>1</v>
+      </c>
+      <c r="BE2">
+        <v>1</v>
+      </c>
+      <c r="BF2">
+        <v>1</v>
+      </c>
+      <c r="BG2">
+        <v>1</v>
+      </c>
+      <c r="BH2">
+        <v>1</v>
+      </c>
+      <c r="BI2">
+        <v>1</v>
+      </c>
+      <c r="BJ2">
+        <v>1</v>
+      </c>
+      <c r="BK2">
+        <v>1</v>
+      </c>
+      <c r="BL2">
+        <v>1</v>
+      </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2">
+        <v>1</v>
+      </c>
+      <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BP2">
+        <v>1</v>
+      </c>
+      <c r="BQ2">
+        <v>1</v>
+      </c>
+      <c r="BR2">
+        <v>1</v>
+      </c>
+      <c r="BS2">
+        <v>1</v>
+      </c>
+      <c r="BT2">
+        <v>1</v>
+      </c>
+      <c r="BU2">
+        <v>1</v>
+      </c>
+      <c r="BV2">
+        <v>1</v>
+      </c>
+      <c r="BW2">
+        <v>1</v>
+      </c>
+      <c r="BX2">
+        <v>1</v>
+      </c>
+      <c r="BY2">
+        <v>1</v>
+      </c>
+      <c r="BZ2">
+        <v>1</v>
+      </c>
+      <c r="CA2">
+        <v>1</v>
+      </c>
+      <c r="CB2">
+        <v>1</v>
+      </c>
+      <c r="CC2">
+        <v>1</v>
+      </c>
+      <c r="CD2">
+        <v>1</v>
+      </c>
+      <c r="CE2">
+        <v>1</v>
+      </c>
+      <c r="CF2">
+        <v>1</v>
+      </c>
+      <c r="CG2">
+        <v>1</v>
+      </c>
+      <c r="CH2">
+        <v>1</v>
+      </c>
+      <c r="CI2">
+        <v>1</v>
+      </c>
+      <c r="CJ2">
+        <v>1</v>
+      </c>
+      <c r="CK2">
+        <v>1</v>
+      </c>
+      <c r="CL2">
+        <v>1</v>
+      </c>
+      <c r="CM2">
+        <v>1</v>
+      </c>
+      <c r="CN2">
+        <v>1</v>
+      </c>
+      <c r="CO2">
+        <v>1</v>
+      </c>
+      <c r="CP2">
+        <v>1</v>
+      </c>
+      <c r="CQ2">
+        <v>1</v>
+      </c>
+      <c r="CR2">
+        <v>1</v>
+      </c>
+      <c r="CS2">
+        <v>1</v>
+      </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
+      <c r="CX2">
+        <v>1</v>
+      </c>
+      <c r="CY2">
+        <v>1</v>
+      </c>
+      <c r="CZ2">
+        <v>1</v>
+      </c>
+      <c r="DA2">
+        <v>1</v>
+      </c>
+      <c r="DB2">
+        <v>1</v>
+      </c>
+      <c r="DC2">
+        <v>1</v>
+      </c>
+      <c r="DD2">
+        <v>1</v>
+      </c>
+      <c r="DE2">
+        <v>1</v>
+      </c>
+      <c r="DF2">
+        <v>1</v>
+      </c>
+      <c r="DG2">
+        <v>1</v>
+      </c>
+      <c r="DH2">
+        <v>1</v>
+      </c>
+      <c r="DI2">
+        <v>1</v>
+      </c>
+      <c r="DJ2">
+        <v>1</v>
+      </c>
+      <c r="DK2">
+        <v>1</v>
+      </c>
+      <c r="DL2">
+        <v>1</v>
+      </c>
+      <c r="DM2">
+        <v>1</v>
+      </c>
+      <c r="DN2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:118">
+      <c r="A3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0.05259463479242556</v>
+      </c>
+      <c r="CJ3">
+        <v>0.07600437635265897</v>
+      </c>
+      <c r="CK3">
+        <v>0.2396898731674675</v>
+      </c>
+      <c r="CL3">
+        <v>0.2450937147896374</v>
+      </c>
+      <c r="CM3">
+        <v>0.2615088961947566</v>
+      </c>
+      <c r="CN3">
+        <v>0.2743031899639513</v>
+      </c>
+      <c r="CO3">
+        <v>0.2977811749191743</v>
+      </c>
+      <c r="CP3">
+        <v>0.5088274262603566</v>
+      </c>
+      <c r="CQ3">
+        <v>0.5137069520142481</v>
+      </c>
+      <c r="CR3">
+        <v>0.529955273967946</v>
+      </c>
+      <c r="CS3">
+        <v>0.5414628371572585</v>
+      </c>
+      <c r="CT3">
+        <v>0.5791905949000974</v>
+      </c>
+      <c r="CU3">
+        <v>0.5826769415653648</v>
+      </c>
+      <c r="CV3">
+        <v>0.6461165009550628</v>
+      </c>
+      <c r="CW3">
+        <v>0.6849997498952293</v>
+      </c>
+      <c r="CX3">
+        <v>0.698036880762267</v>
+      </c>
+      <c r="CY3">
+        <v>0.7170429677808468</v>
+      </c>
+      <c r="CZ3">
+        <v>0.7180008466414556</v>
+      </c>
+      <c r="DA3">
+        <v>0.7185878452986505</v>
+      </c>
+      <c r="DB3">
+        <v>0.7198012793398302</v>
+      </c>
+      <c r="DC3">
+        <v>0.7412216028742581</v>
+      </c>
+      <c r="DD3">
+        <v>0.905947457193667</v>
+      </c>
+      <c r="DE3">
+        <v>0.9222730793980174</v>
+      </c>
+      <c r="DF3">
+        <v>0.9339627549969035</v>
+      </c>
+      <c r="DG3">
+        <v>0.9563334840316509</v>
+      </c>
+      <c r="DH3">
+        <v>0.9841597541443434</v>
+      </c>
+      <c r="DI3">
+        <v>0.9914825485713875</v>
+      </c>
+      <c r="DJ3">
+        <v>0.9915944600198355</v>
+      </c>
+      <c r="DK3">
+        <v>0.9983601434630942</v>
+      </c>
+      <c r="DL3">
+        <v>0.9983601434630942</v>
+      </c>
+      <c r="DM3">
+        <v>0.9983648571052399</v>
+      </c>
+      <c r="DN3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:118">
+      <c r="A4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0.09871022074634736</v>
+      </c>
+      <c r="AT4">
+        <v>0.09926187767174262</v>
+      </c>
+      <c r="AU4">
+        <v>0.1567424242743567</v>
+      </c>
+      <c r="AV4">
+        <v>0.1959605014748954</v>
+      </c>
+      <c r="AW4">
+        <v>0.2158214183539651</v>
+      </c>
+      <c r="AX4">
+        <v>0.2198079700956191</v>
+      </c>
+      <c r="AY4">
+        <v>0.3246750409767759</v>
+      </c>
+      <c r="AZ4">
+        <v>0.3436718284997976</v>
+      </c>
+      <c r="BA4">
+        <v>0.3456098482649456</v>
+      </c>
+      <c r="BB4">
+        <v>0.3867332385078547</v>
+      </c>
+      <c r="BC4">
+        <v>0.3867332385078547</v>
+      </c>
+      <c r="BD4">
+        <v>0.4781921090625277</v>
+      </c>
+      <c r="BE4">
+        <v>0.4815884491429824</v>
+      </c>
+      <c r="BF4">
+        <v>0.4975591758844656</v>
+      </c>
+      <c r="BG4">
+        <v>0.5179191526027653</v>
+      </c>
+      <c r="BH4">
+        <v>0.6658425597124293</v>
+      </c>
+      <c r="BI4">
+        <v>0.75423059699814</v>
+      </c>
+      <c r="BJ4">
+        <v>0.7718614526981853</v>
+      </c>
+      <c r="BK4">
+        <v>0.7773768831043927</v>
+      </c>
+      <c r="BL4">
+        <v>0.7783183163296187</v>
+      </c>
+      <c r="BM4">
+        <v>0.7905576839769053</v>
+      </c>
+      <c r="BN4">
+        <v>0.8957364697575664</v>
+      </c>
+      <c r="BO4">
+        <v>0.8995584645799692</v>
+      </c>
+      <c r="BP4">
+        <v>0.9087287976705288</v>
+      </c>
+      <c r="BQ4">
+        <v>0.9177528918173304</v>
+      </c>
+      <c r="BR4">
+        <v>0.9772761093572422</v>
+      </c>
+      <c r="BS4">
+        <v>0.9877451977159043</v>
+      </c>
+      <c r="BT4">
+        <v>0.9895676701230968</v>
+      </c>
+      <c r="BU4">
+        <v>0.9922269993762265</v>
+      </c>
+      <c r="BV4">
+        <v>0.9979122157408468</v>
+      </c>
+      <c r="BW4">
+        <v>0.9995807520972531</v>
+      </c>
+      <c r="BX4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BY4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BZ4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CA4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CB4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CC4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CD4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CE4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CF4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CG4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CH4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CI4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CJ4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CK4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CL4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CM4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CN4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CO4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CP4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CQ4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CR4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CS4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CT4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CU4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CV4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CW4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CX4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CY4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CZ4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DA4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DB4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DC4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DD4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DE4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DF4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DG4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DH4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DI4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DJ4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DK4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DL4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DM4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DN4">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:118">
+      <c r="A5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0.06673260632391126</v>
+      </c>
+      <c r="CJ5">
+        <v>0.06711949171061291</v>
+      </c>
+      <c r="CK5">
+        <v>0.1983823957813061</v>
+      </c>
+      <c r="CL5">
+        <v>0.2486210245187521</v>
+      </c>
+      <c r="CM5">
+        <v>0.2834863666788568</v>
+      </c>
+      <c r="CN5">
+        <v>0.2902341559608911</v>
+      </c>
+      <c r="CO5">
+        <v>0.2993416781623688</v>
+      </c>
+      <c r="CP5">
+        <v>0.3625687532031833</v>
+      </c>
+      <c r="CQ5">
+        <v>0.4122765950335568</v>
+      </c>
+      <c r="CR5">
+        <v>0.4483468735328552</v>
+      </c>
+      <c r="CS5">
+        <v>0.4730744794976087</v>
+      </c>
+      <c r="CT5">
+        <v>0.4739250583164517</v>
+      </c>
+      <c r="CU5">
+        <v>0.4823964086125578</v>
+      </c>
+      <c r="CV5">
+        <v>0.4937067905746366</v>
+      </c>
+      <c r="CW5">
+        <v>0.5632301025516592</v>
+      </c>
+      <c r="CX5">
+        <v>0.6411814171889446</v>
+      </c>
+      <c r="CY5">
+        <v>0.6431804729624626</v>
+      </c>
+      <c r="CZ5">
+        <v>0.6641220053947766</v>
+      </c>
+      <c r="DA5">
+        <v>0.6751812717834604</v>
+      </c>
+      <c r="DB5">
+        <v>0.6873107756124976</v>
+      </c>
+      <c r="DC5">
+        <v>0.6879232282732302</v>
+      </c>
+      <c r="DD5">
+        <v>0.8610729426761197</v>
+      </c>
+      <c r="DE5">
+        <v>0.9093451745956439</v>
+      </c>
+      <c r="DF5">
+        <v>0.9338560428068322</v>
+      </c>
+      <c r="DG5">
+        <v>0.9578338884494214</v>
+      </c>
+      <c r="DH5">
+        <v>0.967183938715648</v>
+      </c>
+      <c r="DI5">
+        <v>0.9680032653679413</v>
+      </c>
+      <c r="DJ5">
+        <v>0.9885426052102358</v>
+      </c>
+      <c r="DK5">
+        <v>0.993042917231813</v>
+      </c>
+      <c r="DL5">
+        <v>0.9934791343638523</v>
+      </c>
+      <c r="DM5">
+        <v>0.9989651580748783</v>
+      </c>
+      <c r="DN5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:118">
+      <c r="A6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0.04096090315482356</v>
+      </c>
+      <c r="AT6">
+        <v>0.06673410292105224</v>
+      </c>
+      <c r="AU6">
+        <v>0.123684867876229</v>
+      </c>
+      <c r="AV6">
+        <v>0.2731223181579241</v>
+      </c>
+      <c r="AW6">
+        <v>0.2731351751307189</v>
+      </c>
+      <c r="AX6">
+        <v>0.2731501802135319</v>
+      </c>
+      <c r="AY6">
+        <v>0.2734973582226551</v>
+      </c>
+      <c r="AZ6">
+        <v>0.3029980265857927</v>
+      </c>
+      <c r="BA6">
+        <v>0.4492974222315548</v>
+      </c>
+      <c r="BB6">
+        <v>0.4507589016978227</v>
+      </c>
+      <c r="BC6">
+        <v>0.4553604013103921</v>
+      </c>
+      <c r="BD6">
+        <v>0.4568542646151713</v>
+      </c>
+      <c r="BE6">
+        <v>0.4607509420745437</v>
+      </c>
+      <c r="BF6">
+        <v>0.4611502436549094</v>
+      </c>
+      <c r="BG6">
+        <v>0.4792973229790506</v>
+      </c>
+      <c r="BH6">
+        <v>0.5599815763083211</v>
+      </c>
+      <c r="BI6">
+        <v>0.6590593506872624</v>
+      </c>
+      <c r="BJ6">
+        <v>0.6597355390791457</v>
+      </c>
+      <c r="BK6">
+        <v>0.6808822712155893</v>
+      </c>
+      <c r="BL6">
+        <v>0.6855614824746036</v>
+      </c>
+      <c r="BM6">
+        <v>0.6984399058809205</v>
+      </c>
+      <c r="BN6">
+        <v>0.761427098449683</v>
+      </c>
+      <c r="BO6">
+        <v>0.936419908275106</v>
+      </c>
+      <c r="BP6">
+        <v>0.9420820642443497</v>
+      </c>
+      <c r="BQ6">
+        <v>0.9453099614803486</v>
+      </c>
+      <c r="BR6">
+        <v>0.95220755057547</v>
+      </c>
+      <c r="BS6">
+        <v>0.9693802234262096</v>
+      </c>
+      <c r="BT6">
+        <v>0.9804968344852648</v>
+      </c>
+      <c r="BU6">
+        <v>0.9875281096738173</v>
+      </c>
+      <c r="BV6">
+        <v>0.994208213178317</v>
+      </c>
+      <c r="BW6">
+        <v>0.9998822907526547</v>
+      </c>
+      <c r="BX6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AK2">
+      <c r="BY6">
         <v>0.9999999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:37">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.003120914134887533</v>
-      </c>
-      <c r="F3">
-        <v>0.0212643222759253</v>
-      </c>
-      <c r="G3">
-        <v>0.08507705994713402</v>
-      </c>
-      <c r="H3">
-        <v>0.0967822391038239</v>
-      </c>
-      <c r="I3">
-        <v>0.1766816205375271</v>
-      </c>
-      <c r="J3">
-        <v>0.2006956629692623</v>
-      </c>
-      <c r="K3">
-        <v>0.2156008689172483</v>
-      </c>
-      <c r="L3">
-        <v>0.2379709818517944</v>
-      </c>
-      <c r="M3">
-        <v>0.3237913292461013</v>
-      </c>
-      <c r="N3">
-        <v>0.361795453457274</v>
-      </c>
-      <c r="O3">
-        <v>0.4669048312869727</v>
-      </c>
-      <c r="P3">
-        <v>0.6307912909135935</v>
-      </c>
-      <c r="Q3">
-        <v>0.6481233962223318</v>
-      </c>
-      <c r="R3">
-        <v>0.661730424106746</v>
-      </c>
-      <c r="S3">
-        <v>0.7041197421841816</v>
-      </c>
-      <c r="T3">
-        <v>0.784746370057664</v>
-      </c>
-      <c r="U3">
-        <v>0.8560270609772315</v>
-      </c>
-      <c r="V3">
-        <v>0.8560502211761518</v>
-      </c>
-      <c r="W3">
-        <v>0.8802007151277622</v>
-      </c>
-      <c r="X3">
-        <v>0.8907285738158092</v>
-      </c>
-      <c r="Y3">
-        <v>0.9005053052134346</v>
-      </c>
-      <c r="Z3">
-        <v>0.9284031199124126</v>
-      </c>
-      <c r="AA3">
-        <v>0.9529538569783448</v>
-      </c>
-      <c r="AB3">
-        <v>0.9607355266273228</v>
-      </c>
-      <c r="AC3">
-        <v>0.9630988252363377</v>
-      </c>
-      <c r="AD3">
-        <v>0.9630988252363377</v>
-      </c>
-      <c r="AE3">
-        <v>0.9655132475145475</v>
-      </c>
-      <c r="AF3">
-        <v>0.9669704941888708</v>
-      </c>
-      <c r="AG3">
-        <v>0.9695060425704892</v>
-      </c>
-      <c r="AH3">
-        <v>0.9814468371986786</v>
-      </c>
-      <c r="AI3">
-        <v>0.9939548595877086</v>
-      </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-      <c r="AK3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
-      <c r="A4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.002691346204235967</v>
-      </c>
-      <c r="E4">
-        <v>0.006902062416878673</v>
-      </c>
-      <c r="F4">
-        <v>0.01558795081809418</v>
-      </c>
-      <c r="G4">
-        <v>0.04084216200836492</v>
-      </c>
-      <c r="H4">
-        <v>0.04086497854546919</v>
-      </c>
-      <c r="I4">
-        <v>0.05654939684897854</v>
-      </c>
-      <c r="J4">
-        <v>0.07169869894601663</v>
-      </c>
-      <c r="K4">
-        <v>0.07853088282826806</v>
-      </c>
-      <c r="L4">
-        <v>0.2589240943875972</v>
-      </c>
-      <c r="M4">
-        <v>0.2646892978480351</v>
-      </c>
-      <c r="N4">
-        <v>0.4784362988989476</v>
-      </c>
-      <c r="O4">
-        <v>0.5886139042188561</v>
-      </c>
-      <c r="P4">
-        <v>0.5886139042188561</v>
-      </c>
-      <c r="Q4">
-        <v>0.6196778746854843</v>
-      </c>
-      <c r="R4">
-        <v>0.6735431467876777</v>
-      </c>
-      <c r="S4">
-        <v>0.8075925663257215</v>
-      </c>
-      <c r="T4">
-        <v>0.8345205855839414</v>
-      </c>
-      <c r="U4">
-        <v>0.8500266868148872</v>
-      </c>
-      <c r="V4">
-        <v>0.8736744255942375</v>
-      </c>
-      <c r="W4">
-        <v>0.8798102738602859</v>
-      </c>
-      <c r="X4">
-        <v>0.9010008113801105</v>
-      </c>
-      <c r="Y4">
-        <v>0.9388305250313449</v>
-      </c>
-      <c r="Z4">
-        <v>0.9540336212534047</v>
-      </c>
-      <c r="AA4">
-        <v>0.9596015136970171</v>
-      </c>
-      <c r="AB4">
-        <v>0.9606828736962514</v>
-      </c>
-      <c r="AC4">
-        <v>0.961451474114061</v>
-      </c>
-      <c r="AD4">
-        <v>0.9638375071786278</v>
-      </c>
-      <c r="AE4">
-        <v>0.9642617808672371</v>
-      </c>
-      <c r="AF4">
-        <v>0.9689324202721128</v>
-      </c>
-      <c r="AG4">
-        <v>0.9861739326461535</v>
-      </c>
-      <c r="AH4">
-        <v>0.9964075496698446</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
-      <c r="AK4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.003233753690581312</v>
-      </c>
-      <c r="G5">
-        <v>0.04139409329060932</v>
-      </c>
-      <c r="H5">
-        <v>0.07060965837060414</v>
-      </c>
-      <c r="I5">
-        <v>0.07266727719153745</v>
-      </c>
-      <c r="J5">
-        <v>0.08404073028451498</v>
-      </c>
-      <c r="K5">
-        <v>0.1282088628965358</v>
-      </c>
-      <c r="L5">
-        <v>0.1318623158517571</v>
-      </c>
-      <c r="M5">
-        <v>0.3231618386923619</v>
-      </c>
-      <c r="N5">
-        <v>0.3373137192022428</v>
-      </c>
-      <c r="O5">
-        <v>0.4977816626222278</v>
-      </c>
-      <c r="P5">
-        <v>0.6834939184912753</v>
-      </c>
-      <c r="Q5">
-        <v>0.691105288192596</v>
-      </c>
-      <c r="R5">
-        <v>0.7130398225193092</v>
-      </c>
-      <c r="S5">
-        <v>0.7629342809052253</v>
-      </c>
-      <c r="T5">
-        <v>0.8677362018053932</v>
-      </c>
-      <c r="U5">
-        <v>0.895694248742997</v>
-      </c>
-      <c r="V5">
-        <v>0.9005489830999762</v>
-      </c>
-      <c r="W5">
-        <v>0.9155995517064123</v>
-      </c>
-      <c r="X5">
-        <v>0.9186607703190293</v>
-      </c>
-      <c r="Y5">
-        <v>0.9260884894681655</v>
-      </c>
-      <c r="Z5">
-        <v>0.9520575086968257</v>
-      </c>
-      <c r="AA5">
-        <v>0.9683758283419899</v>
-      </c>
-      <c r="AB5">
-        <v>0.9742961649442846</v>
-      </c>
-      <c r="AC5">
-        <v>0.9754120015261948</v>
-      </c>
-      <c r="AD5">
-        <v>0.975462930101086</v>
-      </c>
-      <c r="AE5">
-        <v>0.9756745643900411</v>
-      </c>
-      <c r="AF5">
-        <v>0.9756918135229539</v>
-      </c>
-      <c r="AG5">
-        <v>0.9775002719506395</v>
-      </c>
-      <c r="AH5">
-        <v>0.9877783391127107</v>
-      </c>
-      <c r="AI5">
-        <v>0.9964401654678694</v>
-      </c>
-      <c r="AJ5">
-        <v>0.9989588757322385</v>
-      </c>
-      <c r="AK5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.00516281688100354</v>
-      </c>
-      <c r="E6">
-        <v>0.01543085701180727</v>
-      </c>
-      <c r="F6">
-        <v>0.0177811689310478</v>
-      </c>
-      <c r="G6">
-        <v>0.0370099219798279</v>
-      </c>
-      <c r="H6">
-        <v>0.03918181338578599</v>
-      </c>
-      <c r="I6">
-        <v>0.03937221710155703</v>
-      </c>
-      <c r="J6">
-        <v>0.06678586071636548</v>
-      </c>
-      <c r="K6">
-        <v>0.1250970742320039</v>
-      </c>
-      <c r="L6">
-        <v>0.3227899297885872</v>
-      </c>
-      <c r="M6">
-        <v>0.3271625277583795</v>
-      </c>
-      <c r="N6">
-        <v>0.5491282707135094</v>
-      </c>
-      <c r="O6">
-        <v>0.6720881905144481</v>
-      </c>
-      <c r="P6">
-        <v>0.6721656926823909</v>
-      </c>
-      <c r="Q6">
-        <v>0.7074106898690482</v>
-      </c>
-      <c r="R6">
-        <v>0.7796600610841402</v>
-      </c>
-      <c r="S6">
-        <v>0.886028349215466</v>
-      </c>
-      <c r="T6">
-        <v>0.8941715364905981</v>
-      </c>
-      <c r="U6">
-        <v>0.9057492007091454</v>
-      </c>
-      <c r="V6">
-        <v>0.9166989537209784</v>
-      </c>
-      <c r="W6">
-        <v>0.9197826419574574</v>
-      </c>
-      <c r="X6">
-        <v>0.9339016385095229</v>
-      </c>
-      <c r="Y6">
-        <v>0.9601130846215992</v>
-      </c>
-      <c r="Z6">
-        <v>0.9706651435587336</v>
-      </c>
-      <c r="AA6">
-        <v>0.9742628322655553</v>
-      </c>
-      <c r="AB6">
-        <v>0.9742783678394911</v>
-      </c>
-      <c r="AC6">
-        <v>0.9747655436371437</v>
-      </c>
-      <c r="AD6">
-        <v>0.9748087918469451</v>
-      </c>
-      <c r="AE6">
-        <v>0.9748087918469451</v>
-      </c>
-      <c r="AF6">
-        <v>0.9796277766581101</v>
-      </c>
-      <c r="AG6">
-        <v>0.9916002758364136</v>
-      </c>
-      <c r="AH6">
-        <v>0.9985905085054982</v>
-      </c>
-      <c r="AI6">
-        <v>1</v>
-      </c>
-      <c r="AJ6">
-        <v>1</v>
-      </c>
-      <c r="AK6">
-        <v>1</v>
+      <c r="BZ6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CA6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CB6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CC6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CD6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CE6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CF6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CG6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CH6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CI6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CJ6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CK6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CL6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CM6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CN6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CO6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CP6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CQ6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CR6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CS6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CT6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CU6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CV6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CW6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CX6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CY6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CZ6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DA6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DB6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DC6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DD6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DE6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DF6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DG6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DH6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DI6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DJ6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DK6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DL6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DM6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DN6">
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1955,302 +5111,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>0.02606942941400221</v>
+        <v>0.1435846286677733</v>
       </c>
       <c r="F2">
-        <v>0.5586397265139036</v>
+        <v>0.5013362646359721</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="L2">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="P2" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
+        <v>88</v>
+      </c>
+      <c r="D3">
+        <v>93</v>
+      </c>
+      <c r="E3">
+        <v>0.2396898731674675</v>
+      </c>
+      <c r="F3">
+        <v>0.5088274262603566</v>
+      </c>
+      <c r="G3">
         <v>5</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>0.0212643222759253</v>
-      </c>
-      <c r="F3">
-        <v>0.6307912909135935</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="L3">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D4">
+        <v>58</v>
+      </c>
+      <c r="E4">
+        <v>0.09871022074634736</v>
+      </c>
+      <c r="F4">
+        <v>0.5179191526027653</v>
+      </c>
+      <c r="G4">
         <v>14</v>
-      </c>
-      <c r="E4">
-        <v>0.01558795081809418</v>
-      </c>
-      <c r="F4">
-        <v>0.5886139042188561</v>
-      </c>
-      <c r="G4">
-        <v>9</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="L4">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="P4" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>0.04139409329060932</v>
+        <v>0.1983823957813061</v>
       </c>
       <c r="F5">
-        <v>0.6834939184912753</v>
+        <v>0.5632301025516592</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="L5">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="P5" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="D6">
+        <v>59</v>
+      </c>
+      <c r="E6">
+        <v>0.123684867876229</v>
+      </c>
+      <c r="F6">
+        <v>0.5599815763083211</v>
+      </c>
+      <c r="G6">
         <v>13</v>
-      </c>
-      <c r="E6">
-        <v>0.01543085701180727</v>
-      </c>
-      <c r="F6">
-        <v>0.5491282707135094</v>
-      </c>
-      <c r="G6">
-        <v>9</v>
       </c>
       <c r="H6">
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="L6">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2268,302 +5409,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>0.02606942941400221</v>
+        <v>0.1435846286677733</v>
       </c>
       <c r="F2">
-        <v>0.756542950318196</v>
+        <v>0.7141194007471803</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="L2">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="P2" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <v>0.0212643222759253</v>
+        <v>0.2396898731674675</v>
       </c>
       <c r="F3">
-        <v>0.7041197421841816</v>
+        <v>0.7170429677808468</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="L3">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="E4">
-        <v>0.01558795081809418</v>
+        <v>0.09871022074634736</v>
       </c>
       <c r="F4">
-        <v>0.8075925663257215</v>
+        <v>0.75423059699814</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="L4">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="P4" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E5">
-        <v>0.04139409329060932</v>
+        <v>0.1983823957813061</v>
       </c>
       <c r="F5">
-        <v>0.7130398225193092</v>
+        <v>0.8610729426761197</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="L5">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="P5" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E6">
-        <v>0.01543085701180727</v>
+        <v>0.123684867876229</v>
       </c>
       <c r="F6">
-        <v>0.7074106898690482</v>
+        <v>0.761427098449683</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="L6">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2581,302 +5707,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>0.02606942941400221</v>
+        <v>0.1435846286677733</v>
       </c>
       <c r="F2">
-        <v>0.8601943034857898</v>
+        <v>0.8838669780586561</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="L2">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="P2" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="E3">
-        <v>0.0212643222759253</v>
+        <v>0.2396898731674675</v>
       </c>
       <c r="F3">
-        <v>0.8560270609772315</v>
+        <v>0.905947457193667</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="L3">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="E4">
-        <v>0.01558795081809418</v>
+        <v>0.09871022074634736</v>
       </c>
       <c r="F4">
-        <v>0.8075925663257215</v>
+        <v>0.8957364697575664</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="L4">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="P4" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="D5">
+        <v>107</v>
+      </c>
+      <c r="E5">
+        <v>0.1983823957813061</v>
+      </c>
+      <c r="F5">
+        <v>0.8610729426761197</v>
+      </c>
+      <c r="G5">
         <v>19</v>
-      </c>
-      <c r="E5">
-        <v>0.04139409329060932</v>
-      </c>
-      <c r="F5">
-        <v>0.8677362018053932</v>
-      </c>
-      <c r="G5">
-        <v>13</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="L5">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="P5" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E6">
-        <v>0.01543085701180727</v>
+        <v>0.123684867876229</v>
       </c>
       <c r="F6">
-        <v>0.886028349215466</v>
+        <v>0.936419908275106</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="L6">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2894,122 +6005,119 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>0.02606942941400221</v>
+        <v>0.1435846286677733</v>
       </c>
       <c r="F2">
-        <v>0.9041889362165105</v>
+        <v>0.9602073028368718</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="L2">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="P2" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="E3">
-        <v>0.0212643222759253</v>
+        <v>0.2396898731674675</v>
       </c>
       <c r="F3">
-        <v>0.9005053052134346</v>
+        <v>0.905947457193667</v>
       </c>
       <c r="G3">
         <v>19</v>
@@ -3018,178 +6126,166 @@
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="L3">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D4">
+        <v>67</v>
+      </c>
+      <c r="E4">
+        <v>0.09871022074634736</v>
+      </c>
+      <c r="F4">
+        <v>0.9087287976705288</v>
+      </c>
+      <c r="G4">
         <v>23</v>
-      </c>
-      <c r="E4">
-        <v>0.01558795081809418</v>
-      </c>
-      <c r="F4">
-        <v>0.9010008113801105</v>
-      </c>
-      <c r="G4">
-        <v>18</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="L4">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="P4" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="E5">
-        <v>0.04139409329060932</v>
+        <v>0.1983823957813061</v>
       </c>
       <c r="F5">
-        <v>0.9005489830999762</v>
+        <v>0.9093451745956439</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="L5">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="P5" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="D6">
+        <v>66</v>
+      </c>
+      <c r="E6">
+        <v>0.123684867876229</v>
+      </c>
+      <c r="F6">
+        <v>0.936419908275106</v>
+      </c>
+      <c r="G6">
         <v>20</v>
-      </c>
-      <c r="E6">
-        <v>0.01543085701180727</v>
-      </c>
-      <c r="F6">
-        <v>0.9057492007091454</v>
-      </c>
-      <c r="G6">
-        <v>16</v>
       </c>
       <c r="H6">
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="L6">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
